--- a/testing/automation/src/main/resources/testdata/driver-Template.xlsx
+++ b/testing/automation/src/main/resources/testdata/driver-Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785ABE87-DC78-420D-B3BF-A61CD609BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68F1EA-9465-4329-B858-B50844BA09A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,25 +53,25 @@
     <t>zode</t>
   </si>
   <si>
-    <t>Naresh</t>
-  </si>
-  <si>
-    <t>dose</t>
-  </si>
-  <si>
     <t>Nikhil.zode@testorg.com</t>
   </si>
   <si>
-    <t>Naresh.dose@testorg.com</t>
-  </si>
-  <si>
-    <t>NL P110000123455003</t>
-  </si>
-  <si>
     <t>NL P110000123455004</t>
   </si>
   <si>
     <t>NL P110000123455005</t>
+  </si>
+  <si>
+    <t>NL P110000123455006</t>
+  </si>
+  <si>
+    <t>Raj.Savant@testorg.com</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Savant</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testing/automation/src/main/resources/testdata/driver-Template.xlsx
+++ b/testing/automation/src/main/resources/testdata/driver-Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68F1EA-9465-4329-B858-B50844BA09A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A011086-5F2C-4A3B-937F-9CFE6AD7E992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,40 +38,40 @@
  Last Name: Driver's last name. Optional input. In case of a non-empty input for an existing driver record, the email-id shall be updated accordingly`</t>
   </si>
   <si>
-    <t>Prasad.Patil@testorg.com</t>
-  </si>
-  <si>
-    <t>Prasad</t>
+    <t>NL P110000123455008</t>
+  </si>
+  <si>
+    <t>NL P110000123455009</t>
+  </si>
+  <si>
+    <t>NL P110000123455007</t>
   </si>
   <si>
     <t>Patil</t>
   </si>
   <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>zode</t>
-  </si>
-  <si>
-    <t>Nikhil.zode@testorg.com</t>
-  </si>
-  <si>
-    <t>NL P110000123455004</t>
-  </si>
-  <si>
-    <t>NL P110000123455005</t>
-  </si>
-  <si>
-    <t>NL P110000123455006</t>
-  </si>
-  <si>
-    <t>Raj.Savant@testorg.com</t>
+    <t>Sinde</t>
+  </si>
+  <si>
+    <t>Raj.Nikam@testorg.com</t>
   </si>
   <si>
     <t>Raj</t>
   </si>
   <si>
-    <t>Savant</t>
+    <t>Nikam</t>
+  </si>
+  <si>
+    <t>sameer.patil@testorg.com</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>Nilesh.Sinde@testorg.com</t>
+  </si>
+  <si>
+    <t>Nilesh</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,51 +522,51 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{039C443A-B1F9-4828-A32F-E1F7FAA7C3F6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{2C4CF7CA-A26F-4AAB-A7D5-C46869D7BF10}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E7DB42A1-638F-4F88-989B-8BB066E38013}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E7DB42A1-638F-4F88-989B-8BB066E38013}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{90CED018-3A03-463F-93AF-2B74727EFB0B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1F0C59DD-16C0-437B-9F0B-054F1D4C9D58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
